--- a/biology/Médecine/Véronique_Billat/Véronique_Billat.xlsx
+++ b/biology/Médecine/Véronique_Billat/Véronique_Billat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Billat</t>
+          <t>Véronique_Billat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Véronique Billat, née le 11 septembre 1961 à Grenoble, France, est une physiologiste française, professeure des universités, fondatrice et directrice du laboratoire de biologie intégrative des adaptations à l'exercice, labellisé au sein de l'université et du Génopole d'Évry, labellisé en 2007, unité INSERM 902. Également détentrice d'un brevet d'état 3e degré d'athlétisme, Véronique Billat a consacré son travail à établir le lien entre la science et l’empirisme de l’entraînement sportif en confrontant l’expérience du terrain à la théorie physiologique. De cette dialectique, elle a élaboré une méthode d’entraînement individualisée fondée sur le profil physiologique du sportif prenant en compte l’énergie à VO2max (produit de VO2max par son temps limite) et ses facteurs limitatifs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Billat</t>
+          <t>Véronique_Billat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Véronique Billat est la petite fille de Paul Billat, résistant et député de l'Isère appartenant à une famille d'enseignants. Habitant dans les hauteurs de Grenoble, elle développe son goût pour l'exercice grâce au trajet scolaire à bicyclette quotidien. Elle est vite repérée par son professeur d'éducation physique qui l'oriente vers le cross country et le ski de fond. Elle rejoint donc l'équipe du Grenoble Université Club et du club Alpin français pour la pratique intensive de ces deux disciplines. Elle intègre l'UFR STAPS de Grenoble (1979) où elle suit un cursus complet jusqu'au Doctorat et consacre dès lors ses recherches à la science de l'entraînement dans le domaine de la physiologie. Elle se spécialise dans l’entraînement fondé sur l'étude de l'énergétique à l'exercice en fonction du temps.
-En 2014, elle crée sa propre entreprise Billatraining[1].
+En 2014, elle crée sa propre entreprise Billatraining.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Billat</t>
+          <t>Véronique_Billat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,16 @@
           <t>Parcours universitaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Véronique Billat intègre l'UFR STAPS de Grenoble en 1979, où elle suit un cursus complet jusqu'au doctorat. Elle soutient sa thèse à l'université Joseph-Fourier en 1988 au sein du laboratoire de physiologie de la faculté de médecine de l'Université de Limoges avec le professeur Albert Paul Chassain. La thèse porte sur la définition d'un état stable de la lactatémie[2] alors que les théories du seuil lactique émergeaient dans les années 1980.
-En 1989, elle devient maître de Conférences à l'UFRA STAPS de Grenoble où elle crée un laboratoire de terrain en adaptant la technique des sacs de Douglas à la mesure ambulatoire. Elle travaille notamment avec ses étudiants de maîtrise sur la définition des contraintes énergétiques en montagne (cascade de glace) et escalade et elle publie le premier article ayant mesuré la contrainte énergétique d'une ascension en escalade de type 7a à vue[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Véronique Billat intègre l'UFR STAPS de Grenoble en 1979, où elle suit un cursus complet jusqu'au doctorat. Elle soutient sa thèse à l'université Joseph-Fourier en 1988 au sein du laboratoire de physiologie de la faculté de médecine de l'Université de Limoges avec le professeur Albert Paul Chassain. La thèse porte sur la définition d'un état stable de la lactatémie alors que les théories du seuil lactique émergeaient dans les années 1980.
+En 1989, elle devient maître de Conférences à l'UFRA STAPS de Grenoble où elle crée un laboratoire de terrain en adaptant la technique des sacs de Douglas à la mesure ambulatoire. Elle travaille notamment avec ses étudiants de maîtrise sur la définition des contraintes énergétiques en montagne (cascade de glace) et escalade et elle publie le premier article ayant mesuré la contrainte énergétique d'une ascension en escalade de type 7a à vue.
 En 1992, elle part à l’université Paris XII pour lancer l'UFR STAPS. Pendant cette période elle travaille au CHU Henri Mondor au sein de l'Unité INSERM 296 dirigée par Henri Atlan où elle soutient son habilitation à diriger des recherches en 1994.
 Après un passage à l'université René-Descartes, Paris 5, elle est nommée professeur en 1998 à l'université Lille-II où elle est chargée par ses collègues de rang A de reconquérir le label d'équipe d'accueil du laboratoire de l'UFR STAPS, label obtenu en 2001, no 3608.
 Après avoir accompli ce travail, elle décide d'étendre son approche physiologique à la biologie moléculaire et mute alors en 2002 à l'Université d'Évry avec pour objectif de fonder un laboratoire de biologie intégrative des adaptations biologiques à l'exercice grâce à l'environnement de Genopole et de l'université d'Évry.
-Elle obtient le label Génopole, puis celui d'Équipe d'accueil et enfin celui de l'INSERM en 2007 et d’Unité de recherche en 2015. Elle est nommée professeur de classe exceptionnelle en 2012[4].
+Elle obtient le label Génopole, puis celui d'Équipe d'accueil et enfin celui de l'INSERM en 2007 et d’Unité de recherche en 2015. Elle est nommée professeur de classe exceptionnelle en 2012.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Billat</t>
+          <t>Véronique_Billat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,20 +595,22 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa production scientifique tire son originalité de trois caractéristiques. La première est que toutes les questions posées proviennent essentiellement du terrain sportif grâce à sa fonction d’entraîneur et de physiologiste en particulier en introduisant le temps dans les protocoles pour mieux cerner la performance.
 Il s’ensuivit deuxièmement qu’il fallait recueillir les données sur le terrain sportif par des objets connectés en particulier des analyseurs des échanges gazeux respiratoires (k4b²) et ainsi que par le Physioflow miniaturisé pour recueillir le volume d’éjection systolique à l’exercice. Troisièmement, tous ces capteurs embarqués ont permis la création d’une base de données en temps réel (Big Data) et la création d’un outil mathématique approprié pour traiter ces données. 
-Les problématiques du terrain sportif  l’amènent dès son travail de thèse à montrer que le seuil lactique à l’effort n’est pas une valeur statistique de 4 mM mais un état stable  maximal de la lactatémie propre à chaque individu[5].
-Elle précise ensuite le concept de vitesse minimale qui sollicite VO2max en particulier son temps de soutien ou temps limite à VO2max et sa reproductibilité. Cet article se classa dans le top 10 des articles les plus cités dans ce domaine en 1994[6].
-Puis elle modélisa le temps limite à VO2max qui est corrélé à la capacité anaérobie[7]. Ce temps de maintien à VO2max à vitesse ou puissance constante est de 6 à 8 minutes. Grâce à un entraînement fractionné, ce temps de maintien peut être rallongé à 14 minutes[8].
-Elle montre ensuite par deux articles différents que le temps de maintien est le plus long à 100 % de VO2max[9],[10]. Elle élabore ensuite le concept puissance critique à VO2max qui est la pente de la relation entre la puissance et le temps limite à VO2max[11],[12]. 
-En organisant une vraie course à pied de 800 m et 15 000 m avec des participants monitorés, elle constate que la variation de la vitesse est décrite par une équation différentielle sur 1 500 m qui dépend de la réserve du métabolisme anaérobique lactique[13].
-Cela lui inspire un nouveau protocole de laboratoire dans lequel VO2max devient la variable indépendante et non plus la variable dépendante. Le temps de maintien à VO2max est alors 8 fois plus long qu’à vitesse constante[14].
-Parallèlement, elle entame une collaboration  pendant 10 ans avec Yves Meyer (Médaille Gauss en 2010 et Prix Abel en 2017) et prouve par un traitement par ondelettes le caractère fractal de la fréquence cardiaque à l’exercice[15]. Toujours en collaboration avec Yves Meyer, elle met en  évidence qu’un 10 000 m couru à vitesse libre permet de conserver le caractère fractal de la fréquence cardiaque[16].
-Un article récent, lors du marathon de Paris en 2011, montre qu’au-delà de 30 km le débit cardiaque maximal augmente par unité de mètres parcourus (L.m-1)[17].
+Les problématiques du terrain sportif  l’amènent dès son travail de thèse à montrer que le seuil lactique à l’effort n’est pas une valeur statistique de 4 mM mais un état stable  maximal de la lactatémie propre à chaque individu.
+Elle précise ensuite le concept de vitesse minimale qui sollicite VO2max en particulier son temps de soutien ou temps limite à VO2max et sa reproductibilité. Cet article se classa dans le top 10 des articles les plus cités dans ce domaine en 1994.
+Puis elle modélisa le temps limite à VO2max qui est corrélé à la capacité anaérobie. Ce temps de maintien à VO2max à vitesse ou puissance constante est de 6 à 8 minutes. Grâce à un entraînement fractionné, ce temps de maintien peut être rallongé à 14 minutes.
+Elle montre ensuite par deux articles différents que le temps de maintien est le plus long à 100 % de VO2max,. Elle élabore ensuite le concept puissance critique à VO2max qui est la pente de la relation entre la puissance et le temps limite à VO2max,. 
+En organisant une vraie course à pied de 800 m et 15 000 m avec des participants monitorés, elle constate que la variation de la vitesse est décrite par une équation différentielle sur 1 500 m qui dépend de la réserve du métabolisme anaérobique lactique.
+Cela lui inspire un nouveau protocole de laboratoire dans lequel VO2max devient la variable indépendante et non plus la variable dépendante. Le temps de maintien à VO2max est alors 8 fois plus long qu’à vitesse constante.
+Parallèlement, elle entame une collaboration  pendant 10 ans avec Yves Meyer (Médaille Gauss en 2010 et Prix Abel en 2017) et prouve par un traitement par ondelettes le caractère fractal de la fréquence cardiaque à l’exercice. Toujours en collaboration avec Yves Meyer, elle met en  évidence qu’un 10 000 m couru à vitesse libre permet de conserver le caractère fractal de la fréquence cardiaque.
+Un article récent, lors du marathon de Paris en 2011, montre qu’au-delà de 30 km le débit cardiaque maximal augmente par unité de mètres parcourus (L.m-1).
 Enfin, les dernières recherches s’orientent vers la découverte d’un algorithme qui permette de déterminer la signature de vitesse propre à chaque individu pendant l’effort pour optimiser sa performance (cf. l’ouvrage  l’entraînement pratique et scientifique à la course à pied).
-À noter la publication récente de l'analyse du record de l'heure cycliste des plus de 103 ans de Robert Marchand qui est suivi par le laboratoire d'Evry depuis 4 ans[18].
+À noter la publication récente de l'analyse du record de l'heure cycliste des plus de 103 ans de Robert Marchand qui est suivi par le laboratoire d'Evry depuis 4 ans.
 </t>
         </is>
       </c>
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Billat</t>
+          <t>Véronique_Billat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,10 +639,12 @@
           <t>Parcours sportif</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Équipe de France universitaire de cross et ski de fond de 1980 à 1983.
-Véronique Billat remporte la course mythique de Sierre-Zinal en 1982[19].
+Véronique Billat remporte la course mythique de Sierre-Zinal en 1982.
 Elle est titulaire du Brevet d'État 3e degré d'Athlétisme.</t>
         </is>
       </c>
